--- a/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
+++ b/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE15FFF-B140-433B-911D-0D9A61198480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174F3C32-DE55-4747-BD04-29BAAF347FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -2935,6 +2935,75 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2953,18 +3022,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -2974,15 +3031,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -2992,33 +3040,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -3027,27 +3048,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3374,7 +3374,7 @@
   <dimension ref="B1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3393,216 +3393,216 @@
   <sheetData>
     <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="H2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="27">
         <v>1</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C6" s="43">
+      <c r="C6" s="31">
         <v>2</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="2:10" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C7" s="43">
+      <c r="C7" s="31">
         <v>3</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="2:10" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="43">
+      <c r="C8" s="31">
         <v>4</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C9" s="43">
+      <c r="C9" s="31">
         <v>5</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C10" s="43">
+      <c r="C10" s="31">
         <v>6</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C13" s="43">
+      <c r="C13" s="31">
         <v>9</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="52"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="H16" s="16"/>

--- a/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
+++ b/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174F3C32-DE55-4747-BD04-29BAAF347FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B8F05-C1F9-4849-A652-1AE0CEB5EAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -3374,7 +3374,7 @@
   <dimension ref="B1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
+++ b/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B8F05-C1F9-4849-A652-1AE0CEB5EAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EEE239-9911-4A55-AF51-A0A7FCE286B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -42,317 +42,6 @@
     <author>홍진선</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{153F9C88-79CE-4E78-9C99-B1DEE37657A0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ID </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>넘버링</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>규칙</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1000 ~ 1999 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">피해형
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2000 ~ 2999 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>능력치</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">증가
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3000 ~ 3999 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>능력치</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">감소
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4000 ~ 4999 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>특수기능</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">버프
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5000 ~ 5999 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>특수기능</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">디버프
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6000 ~ 6999 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시너지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">효과
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">7000 ~ 7999 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모드</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>변경</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D8270824-394D-485A-97F5-DB008A8CB5CF}">
       <text>
         <r>
@@ -360,413 +49,26 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
+            <rFont val="맑은 고딕"/>
             <family val="3"/>
             <charset val="129"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대상</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (enum)</t>
+          <t>효과 적용 대상</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-SELF : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자신
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">FOE : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">PARTY : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>파티원</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자신</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>포함</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{44BBFA25-2682-45ED-9FFB-9541BA4459D4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타입</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (enum)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DAMAGE : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">피해
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ABILLTY : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>능력치</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">변경
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">BUFF : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>특수기능</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">버프
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">DEBUFF : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>특수기능</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-SYNERGY : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">시너지
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">MODE : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모드</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>변경</t>
+0 : 자신
+1 : 적
+2 : 파티원(자신 포함) </t>
         </r>
       </text>
     </comment>
@@ -775,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -818,10 +116,6 @@
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1557,10 +851,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FOE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디버프 - 화상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1624,14 +914,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시너지 - 공격력 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1705,10 +987,6 @@
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Affect Table의 ID 넘버링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1739,23 +1017,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">스킬 효과 ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>('Affect Table의 ID 넘버링' 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -1765,7 +1026,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">효과 적용 대상 </t>
+      <t xml:space="preserve">비율 연산이 필요한 지 확인 (효과 값의 적용 유형) </t>
     </r>
     <r>
       <rPr>
@@ -1789,18 +1050,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SELF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 자신 // </t>
+      <t>0(FALSE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 고정 수치 증감 // </t>
     </r>
     <r>
       <rPr>
@@ -1812,67 +1073,83 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FOE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 적 // </t>
-    </r>
+      <t>1(TRUE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 비율 연산 후 적용  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PARTY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 파티원(자신 포함)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">효과 아이콘 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Icon_Atlas_Table.xlsx의 id)
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">효과 타입 </t>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 아이콘 없음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">효과 적용 대상 </t>
     </r>
     <r>
       <rPr>
@@ -1896,18 +1173,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DAMAGE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 피해 // </t>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 자신 // </t>
     </r>
     <r>
       <rPr>
@@ -1919,267 +1196,67 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ABILITY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 능력치 변경 // </t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 적 // </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 파티원(자신 포함)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BUFF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 특수기능-버프 // </t>
-    </r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DEBUFF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 특수기능-디버프</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SYNERGY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 시너지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MODE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 모드 변경</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">효과 타입 세부 분류
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(type == DAMEGE인 경우)  dot : 도트 대미지 // 
-(type == ABILITY인 경우) 능력치 명 그대로 사용  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>atk_pwr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 공격력 // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>move_spd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 이동 속도 // … 
-(type == BUFF 인 경우) shield: 보호막 // ...</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">비율 연산이 필요한 지 확인 (효과 값의 적용 유형) </t>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">효과 타입 </t>
     </r>
     <r>
       <rPr>
@@ -2203,18 +1280,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0(FALSE)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 고정 수치 증감 // </t>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 피해 // </t>
     </r>
     <r>
       <rPr>
@@ -2226,73 +1303,223 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1(TRUE)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 비율 연산 후 적용  </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 능력치 변경 // </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아이콘 리소스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 특수기능-버프 // </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 아이콘 없음(UI 표시 없음)</t>
-    </r>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 특수기능-디버프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 시너지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 모드 변경</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 설명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Effect_String_Table.xlsx의 id)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Table의 ID 넘버링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 효과 ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(우측 'Effect Table의 ID 넘버링' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2304,7 +1531,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2358,34 +1585,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2516,8 +1715,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2560,6 +1785,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -2877,7 +2108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2914,140 +2145,152 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3371,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:J82"/>
+  <dimension ref="B1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3393,36 +2636,36 @@
   <sheetData>
     <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="H2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="C2" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="H2" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G3" s="22"/>
-      <c r="H3" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
+      <c r="H3" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="23" t="s">
@@ -3435,16 +2678,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
@@ -3456,79 +2699,77 @@
         <v>4</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <v>2</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-    </row>
-    <row r="7" spans="2:10" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C7" s="31">
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C7" s="27">
         <v>3</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F7" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="27">
+        <v>4</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="2:10" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="31">
+      <c r="E8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>68</v>
-      </c>
+      <c r="F8" s="34"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C9" s="31">
+      <c r="C9" s="27">
         <v>5</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="35"/>
@@ -3536,73 +2777,65 @@
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C10" s="31">
+      <c r="B10" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="27">
         <v>6</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>70</v>
+      <c r="E10" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+    <row r="11" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="27">
+        <v>7</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>60</v>
+      </c>
       <c r="G11" s="22"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="36"/>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C13" s="31">
-        <v>9</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="37"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="22"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="H16" s="16"/>
@@ -3614,10 +2847,10 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="H19" s="16"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="H20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C21" s="16"/>
@@ -3798,12 +3031,6 @@
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C80" s="16"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C81" s="16"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C82" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3822,14 +3049,14 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.69921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
@@ -3851,22 +3078,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -3889,25 +3116,25 @@
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="8">
         <v>1000</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
+      <c r="C2" s="8">
+        <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -3933,25 +3160,25 @@
     </row>
     <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="8">
         <v>1001</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>29</v>
+      <c r="C3" s="8">
+        <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -3977,25 +3204,25 @@
     </row>
     <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8">
         <v>1002</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
+      <c r="C4" s="8">
+        <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -4020,7 +3247,6 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4043,7 +3269,6 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4066,7 +3291,6 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4089,7 +3313,6 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4112,7 +3335,6 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4135,7 +3357,6 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -4159,25 +3380,25 @@
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8">
         <v>2000</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>38</v>
+      <c r="C11" s="8">
+        <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4201,25 +3422,25 @@
     </row>
     <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8">
         <v>2001</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>38</v>
+      <c r="C12" s="8">
+        <v>0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -4244,7 +3465,7 @@
     <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4271,25 +3492,25 @@
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="8">
         <v>3000</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
+      <c r="C15" s="8">
+        <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4313,25 +3534,25 @@
     </row>
     <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8">
         <v>3001</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>29</v>
+      <c r="C16" s="8">
+        <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -4356,7 +3577,7 @@
     <row r="17" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -4383,135 +3604,135 @@
     </row>
     <row r="18" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="8">
         <v>4000</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8">
         <v>5000</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="8">
         <v>5100</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>29</v>
+      <c r="C21" s="8">
+        <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8">
         <v>6000</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
+      <c r="C23" s="8">
+        <v>1</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B24" s="8">
         <v>6001</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>39</v>
+      <c r="C24" s="8">
+        <v>2</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B26" s="8">
         <v>7000</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>38</v>
+      <c r="C26" s="8">
+        <v>0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
+++ b/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EEE239-9911-4A55-AF51-A0A7FCE286B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B4851B-7DFE-487E-BC57-ED6F7D1017D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -37,6 +37,265 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>홍진선</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{B308CCCC-AFEC-442E-BFA7-5A22CE1483FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ID 넘버링</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+1000 ~ 1999 : 피해형
+2000 ~ 2999 : 능력치 증가
+3000 ~ 3999 : 능력치 감소
+4000 ~ 4999 : 특수기능 - 버프
+5000 ~ 5999 : 특수기능 - 디버프
+6000 ~ 6999 : 시너지 효과
+7000 ~ 7999 : 모드 변경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{7A13DD9A-6D13-4B12-980E-AD1338953E07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">효과 적용 대상
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">0 : 자신
+1 : 적
+2 : 파티원(자신포함)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{14C98F2B-D03D-4B49-A421-4C8F38342542}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>효과 타입:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>10 : 일반 피해
+11 : Dot 피해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>20 : 능력치 증가
+21 : 능력치 감소</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>30 : 특수기능 - 버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (회복, 보호막 등)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>31 : 특수기능 - 디버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (상태이상, 화상 등) 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>40 : 시너지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">50 : 모드 변경 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">(폭주, 사신화  등)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>홍진선</author>
@@ -77,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,10 +1189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>burn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1002,16 +1257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000 ~ 1999 : 피해형
-2000 ~ 2999 : 능력치 증가
-3000 ~ 3999 : 능력치 감소
-4000 ~ 4999 : 특수기능 - 버프
-5000 ~ 5999 : 특수기능 - 디버프
-6000 ~ 6999 : 시너지 효과
-7000 ~ 7999 : 모드 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기획용 (간단한 설명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1026,7 +1271,251 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">비율 연산이 필요한 지 확인 (효과 값의 적용 유형) </t>
+      <t xml:space="preserve">효과 아이콘 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Icon_Atlas_Table.xlsx의 id)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 아이콘 없음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 설명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Effect_String_Table.xlsx의 id)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 효과 ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(우측 'Effect Table의 ID 넘버링' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 타입의 세부 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 타입 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>효과 적용 대상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과 ID 넘버링 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OO/OOO -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>효과 타입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>효과 번호</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[예시 1] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id = 10001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[예시 2] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id = 31010</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수기능
+- 디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">비율 연산이 필요한 지 확인 </t>
     </r>
     <r>
       <rPr>
@@ -1050,7 +1539,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0(FALSE)</t>
+      <t>FALSE</t>
     </r>
     <r>
       <rPr>
@@ -1073,7 +1562,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1(TRUE)</t>
+      <t>TRUE</t>
     </r>
     <r>
       <rPr>
@@ -1084,442 +1573,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 비율 연산 후 적용  </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">효과 아이콘 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Icon_Atlas_Table.xlsx의 id)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 아이콘 없음</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">효과 적용 대상 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 자신 // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 적 // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 파티원(자신 포함)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">효과 타입 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 피해 // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 능력치 변경 // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 특수기능-버프 // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 특수기능-디버프</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 시너지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 모드 변경</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 설명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Effect_String_Table.xlsx의 id)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect Table의 ID 넘버링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">스킬 효과 ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(우측 'Effect Table의 ID 넘버링' 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_type</t>
+      <t>: 비율 연산 후 적용</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1699,14 +1754,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="9"/>
@@ -1740,6 +1787,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1781,18 +1834,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFC5"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFFD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1948,19 +2001,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -1971,30 +2011,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2102,13 +2118,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2169,22 +2284,22 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2217,7 +2332,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2232,6 +2347,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2241,55 +2371,136 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2300,10 +2511,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFD5"/>
       <color rgb="FFFFFFC5"/>
       <color rgb="FFF9FAFD"/>
       <color rgb="FFD7DFF1"/>
-      <color rgb="FFFFFFD5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2613,11 +2824,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:J80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
+  <dimension ref="B1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2627,47 +2838,52 @@
     <col min="3" max="3" width="5.69921875" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.09765625" style="16" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="83.09765625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="63.09765625" style="49" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="17"/>
+    <col min="8" max="8" width="8.8984375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.8984375" style="17" customWidth="1"/>
+    <col min="10" max="11" width="8.796875" style="17"/>
+    <col min="12" max="13" width="8.796875" style="16"/>
+    <col min="14" max="16384" width="8.796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="41" t="s">
+    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:13" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="H2" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="H2" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="G3" s="22"/>
-      <c r="H3" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-    </row>
-    <row r="4" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" s="23" t="s">
         <v>1</v>
       </c>
@@ -2678,14 +2894,17 @@
         <v>1</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H4" s="74"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
@@ -2699,15 +2918,26 @@
         <v>4</v>
       </c>
       <c r="F5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C6" s="27">
+      <c r="L5" s="85">
+        <v>10</v>
+      </c>
+      <c r="M5" s="86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C6" s="52">
         <v>2</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -2716,16 +2946,23 @@
       <c r="E6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>61</v>
+      <c r="F6" s="56" t="s">
+        <v>65</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C7" s="27">
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C7" s="52">
         <v>3</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -2734,110 +2971,142 @@
       <c r="E7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="89"/>
+    </row>
+    <row r="8" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="52">
+        <v>4</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="27">
-        <v>4</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-    </row>
-    <row r="9" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C9" s="27">
+      <c r="H8" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="83">
+        <v>31</v>
+      </c>
+      <c r="M8" s="90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="52">
         <v>5</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B10" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="C10" s="57">
         <v>6</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="58" t="s">
-        <v>63</v>
+      <c r="F10" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="2:10" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B11" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="79"/>
+    </row>
+    <row r="11" spans="2:13" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="57">
         <v>7</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="59" t="s">
-        <v>60</v>
+      <c r="F11" s="44" t="s">
+        <v>57</v>
       </c>
       <c r="G11" s="22"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="36"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="22"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="36"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.4">
@@ -2847,16 +3116,19 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C19" s="16"/>
+      <c r="F19" s="50"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C21" s="16"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C22" s="16"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C23" s="16"/>
@@ -2866,6 +3138,7 @@
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C25" s="16"/>
+      <c r="F25" s="50"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C26" s="16"/>
@@ -3032,24 +3305,33 @@
     <row r="80" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C80" s="16"/>
     </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C81" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="H7:M7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J8"/>
+    <mergeCell ref="H3:K4"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -3061,16 +3343,16 @@
     <col min="5" max="5" width="15.69921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="15.69921875" style="11" customWidth="1"/>
-    <col min="13" max="15" width="15.69921875" style="10" customWidth="1"/>
-    <col min="16" max="17" width="15.69921875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="18.69921875" style="11" customWidth="1"/>
-    <col min="19" max="22" width="15.69921875" style="10" customWidth="1"/>
-    <col min="23" max="26" width="18.69921875" style="11" customWidth="1"/>
-    <col min="27" max="16384" width="8.796875" style="2"/>
+    <col min="8" max="11" width="15.69921875" style="11" customWidth="1"/>
+    <col min="12" max="14" width="15.69921875" style="10" customWidth="1"/>
+    <col min="15" max="16" width="15.69921875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="18.69921875" style="11" customWidth="1"/>
+    <col min="18" max="21" width="15.69921875" style="10" customWidth="1"/>
+    <col min="22" max="25" width="18.69921875" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3084,10 +3366,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -3098,23 +3380,22 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -3128,9 +3409,9 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
@@ -3142,23 +3423,22 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
@@ -3172,9 +3452,9 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -3186,23 +3466,22 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -3216,9 +3495,9 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -3230,155 +3509,148 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="G5" s="9"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="G9" s="9"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="G10" s="9"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
+      <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:25" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -3394,7 +3666,7 @@
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -3404,23 +3676,22 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -3436,7 +3707,7 @@
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -3446,23 +3717,22 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3474,23 +3744,22 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:25" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -3506,7 +3775,7 @@
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -3516,23 +3785,22 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -3548,7 +3816,7 @@
       <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -3558,23 +3826,22 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3586,23 +3853,22 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
@@ -3619,7 +3885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>27</v>
       </c>
@@ -3633,13 +3899,13 @@
         <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>28</v>
       </c>
@@ -3653,10 +3919,10 @@
         <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
@@ -3673,7 +3939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>35</v>
       </c>
@@ -3690,9 +3956,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="8">
         <v>7000</v>
@@ -3704,12 +3970,12 @@
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="8">
         <v>0</v>
@@ -3718,12 +3984,12 @@
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="15.6" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="8">
         <v>0</v>
@@ -3732,7 +3998,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
+++ b/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B4851B-7DFE-487E-BC57-ED6F7D1017D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E535FB8-281E-4B4C-89A8-3713927F3214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -98,11 +98,24 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">효과 적용 대상
+          <t>효과 적용 대상
+SELF</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 자신
 </t>
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="맑은 고딕"/>
@@ -110,9 +123,42 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">0 : 자신
-1 : 적
-2 : 파티원(자신포함)
+          <t>ENERMY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 적
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>PARTY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 파티원(자신포함)
 </t>
         </r>
       </text>
@@ -153,8 +199,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>10 : 일반 피해
-11 : Dot 피해</t>
+          <t>DAMAGE</t>
         </r>
         <r>
           <rPr>
@@ -164,6 +209,267 @@
             <family val="3"/>
             <charset val="129"/>
             <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 피해형
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ABILITY_INCREASE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 능력치 증가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+ABILITY_DECREASE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 능력치 감소
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>SPECIAL_BUFF</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 특수 기능 - 버프 (회복, 보호막 등)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">SPECIAL_DEBUFF </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 특수 기능 - 디버프 (상태이상, 화상 등) 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">SKILL_MODIFY </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 스킬의 속성 변경
+(재사용 대기 시간 감소, [화]속성 부여 등)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{A5270C66-88C5-4F4F-990E-043123595C97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>세부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분류</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타입</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>별</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -173,72 +479,295 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>20 : 능력치 증가
-21 : 능력치 감소</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[type = DAMAGE]
+-&gt; detail_type = </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>피해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+single : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">피해
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">area : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>광역</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">피해
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">projectile : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발사체</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">피해
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[type = ABILITY_INCREASE/DECREASE]
+-&gt; detail_type = </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용되는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스탯</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>30 : 특수기능 - 버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> (회복, 보호막 등)
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">atk_pwr : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">공격력
 </t>
         </r>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>31 : 특수기능 - 디버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> (상태이상, 화상 등) 
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">move_spd : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">속도
+등등
 </t>
         </r>
         <r>
@@ -246,21 +775,18 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>40 : 시너지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>[type = SPECIAL_BUFF/DEBUFF]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -270,23 +796,431 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">50 : 모드 변경 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">(폭주, 사신화  등)
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">-&gt; detail_type = </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상세</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">heal : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">회복
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">invincibility : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">무적
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">burn : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">화상
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">stun : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기절</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">등등
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[type = SKILL_MODIFY]
+-&gt; detail_type = </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용되는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cooldown_increase : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cooldown_decrease : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">감소
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">element_grant : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>속성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">부여
+등등
 </t>
         </r>
       </text>
@@ -325,9 +1259,9 @@
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-0 : 자신
-1 : 적
-2 : 파티원(자신 포함) </t>
+SELF : 자신
+ENERMY : 적
+PARTY : 파티원(자신포함)</t>
         </r>
       </text>
     </comment>
@@ -336,7 +1270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,46 +1395,40 @@
   </si>
   <si>
     <r>
-      <t>[f1]</t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> N% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>피해를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f2]</t>
-    </r>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -509,7 +1437,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>초</t>
+      <t>공격력을</t>
     </r>
     <r>
       <rPr>
@@ -518,7 +1446,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> [f1]% </t>
     </r>
     <r>
       <rPr>
@@ -528,7 +1456,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>마다</t>
+      <t>증가시킨다</t>
     </r>
     <r>
       <rPr>
@@ -537,52 +1465,46 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>준다</t>
-    </r>
-    <r>
-      <rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[f1]</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> N% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>감소</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -591,7 +1513,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>고정</t>
+      <t>공격력을</t>
     </r>
     <r>
       <rPr>
@@ -600,7 +1522,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> [f1]% </t>
     </r>
     <r>
       <rPr>
@@ -610,7 +1532,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>피해를</t>
+      <t>감소시킨다</t>
     </r>
     <r>
       <rPr>
@@ -619,84 +1541,84 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> [f2]</t>
-    </r>
-    <r>
-      <rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>번</t>
-    </r>
-    <r>
-      <rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> N </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>준다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>공격력을</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> N% </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> [f1]</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>증가</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>만큼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -705,7 +1627,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>공격력을</t>
+      <t>증가시킨다</t>
     </r>
     <r>
       <rPr>
@@ -714,30 +1636,32 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> [f1]% </t>
-    </r>
-    <r>
-      <rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>증가시킨다</t>
-    </r>
-    <r>
-      <rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> N </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -747,32 +1671,30 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N% </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>감소</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>감소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>공격력을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [f1]</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -781,7 +1703,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>공격력을</t>
+      <t>만큼</t>
     </r>
     <r>
       <rPr>
@@ -790,7 +1712,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> [f1]% </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -814,295 +1736,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만큼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가시킨다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만큼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감소시킨다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보호막 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시너지 - 방어력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고정</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대미지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DoT </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대미지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일반</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대미지</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1153,38 +1787,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYNERGY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABILITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시너지 - 공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk_pwr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1194,42 +1800,6 @@
   </si>
   <si>
     <t>fear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버서커 - 폭주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소울이터 - 사신화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소울이터 - 영혼 강탈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_burst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_deathload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_soulsnatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1357,10 +1927,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>효과 타입의 세부 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">효과 타입 </t>
     </r>
@@ -1392,116 +1958,6 @@
       </rPr>
       <t xml:space="preserve"> (메모 참고)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과 ID 넘버링 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OO/OOO -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>효과 타입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>효과 번호</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1번 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[예시 1] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id = 10001</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[예시 2] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id = 31010</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수기능
-- 디버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10번 효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1574,6 +2030,189 @@
         <scheme val="minor"/>
       </rPr>
       <t>: 비율 연산 후 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 세부 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENERMY</t>
+  </si>
+  <si>
+    <t>SELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABILITY_INCREASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABILITY_DECREASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_DEBUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_MODIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 속성 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_grant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooldown_decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 재사용 대기 시간을 n초 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기 시간 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기 시간 %감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 재사용 대기 시간을 n% 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬에 속성을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과 ID 넘버링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 ~ 1999 : 피해
+2000 ~ 2999 : 능력치 증가
+3000 ~ 3999 : 능력치 감소
+4000 ~ 4999 : 특수 기능 - 버프 
+5000 ~ 5999 : 특수 기능 - 디버프
+6000 ~ 6999 : 스킬의 속성 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피해</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[f1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[f2]%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 비례한 피해를 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[f3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번 준다.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1586,7 +2225,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1660,14 +2299,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1702,15 +2333,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1794,8 +2416,37 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1838,14 +2489,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2118,112 +2763,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2245,9 +2791,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2260,248 +2803,170 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2526,6 +2991,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2827,497 +3296,450 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.69921875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="63.09765625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.8984375" style="17" customWidth="1"/>
-    <col min="10" max="11" width="8.796875" style="17"/>
-    <col min="12" max="13" width="8.796875" style="16"/>
-    <col min="14" max="16384" width="8.796875" style="17"/>
+    <col min="1" max="1" width="3.19921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="5.69921875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="63.09765625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="8.8984375" style="13" customWidth="1"/>
+    <col min="10" max="11" width="8.796875" style="13"/>
+    <col min="12" max="13" width="8.796875" style="12"/>
+    <col min="14" max="16384" width="8.796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:13" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="H2" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-    </row>
-    <row r="3" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-    </row>
-    <row r="4" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="23" t="s">
+    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="H2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="26" t="s">
+      <c r="F4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>1</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="85">
-        <v>10</v>
-      </c>
-      <c r="M5" s="86" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C6" s="52">
+      <c r="F5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C6" s="27">
         <v>2</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C7" s="27">
+        <v>3</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="2:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="27">
         <v>4</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="87" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C7" s="52">
-        <v>3</v>
-      </c>
-      <c r="D7" s="32" t="s">
+      <c r="D8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+    </row>
+    <row r="9" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C9" s="27">
         <v>5</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="D9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="44">
+        <v>6</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="89"/>
-    </row>
-    <row r="8" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="52">
+      <c r="F10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="44">
+        <v>7</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="83">
-        <v>31</v>
-      </c>
-      <c r="M8" s="90" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="52">
-        <v>5</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="57">
-        <v>6</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="79"/>
-    </row>
-    <row r="11" spans="2:13" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B11" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="57">
-        <v>7</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="36"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="H16" s="16"/>
+      <c r="F11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="40"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="31"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="H17" s="16"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="H18" s="16"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="F19" s="50"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="42"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="16"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="16"/>
-      <c r="F21" s="50"/>
+      <c r="C21" s="12"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C22" s="16"/>
-      <c r="F22" s="50"/>
+      <c r="C22" s="12"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C23" s="16"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C24" s="16"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="16"/>
-      <c r="F25" s="50"/>
+      <c r="C25" s="12"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C26" s="16"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C27" s="16"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C28" s="16"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C29" s="16"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C30" s="16"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C31" s="16"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C32" s="16"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C33" s="16"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C34" s="16"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C35" s="16"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C36" s="16"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C37" s="16"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C38" s="16"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C39" s="16"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C40" s="16"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C41" s="16"/>
+      <c r="C41" s="12"/>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C42" s="16"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C43" s="16"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C44" s="16"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C45" s="16"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C46" s="16"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C47" s="16"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C48" s="16"/>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C49" s="16"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C50" s="16"/>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C51" s="16"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C52" s="16"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C53" s="16"/>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C54" s="16"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C55" s="16"/>
+      <c r="C55" s="12"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C56" s="16"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C57" s="16"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C58" s="16"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C59" s="16"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C60" s="16"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C61" s="16"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C62" s="16"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C63" s="16"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C64" s="16"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C65" s="16"/>
+      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C66" s="16"/>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C67" s="16"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C68" s="16"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C69" s="16"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C70" s="16"/>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C71" s="16"/>
+      <c r="C71" s="12"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C72" s="16"/>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C73" s="16"/>
+      <c r="C73" s="12"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C74" s="16"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C75" s="16"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C76" s="16"/>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C77" s="16"/>
+      <c r="C77" s="12"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C78" s="16"/>
+      <c r="C78" s="12"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C79" s="16"/>
+      <c r="C79" s="12"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C80" s="16"/>
+      <c r="C80" s="12"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C81" s="16"/>
+      <c r="C81" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="H7:M7"/>
+  <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:K4"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="H3:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3328,27 +3750,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.69921875" style="11" customWidth="1"/>
-    <col min="12" max="14" width="15.69921875" style="10" customWidth="1"/>
-    <col min="15" max="16" width="15.69921875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="18.69921875" style="11" customWidth="1"/>
-    <col min="18" max="21" width="15.69921875" style="10" customWidth="1"/>
-    <col min="22" max="25" width="18.69921875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="41.69921875" style="10" customWidth="1"/>
+    <col min="8" max="11" width="15.69921875" style="10" customWidth="1"/>
+    <col min="12" max="14" width="15.69921875" style="9" customWidth="1"/>
+    <col min="15" max="16" width="15.69921875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="18.69921875" style="10" customWidth="1"/>
+    <col min="18" max="21" width="15.69921875" style="9" customWidth="1"/>
+    <col min="22" max="25" width="18.69921875" style="10" customWidth="1"/>
     <col min="26" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
@@ -3366,10 +3788,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -3396,25 +3818,25 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7">
         <v>1000</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="1">
@@ -3439,30 +3861,22 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
+      <c r="A3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
+      <c r="G3" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3481,31 +3895,10 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A4" s="52"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3525,7 +3918,7 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3546,7 +3939,7 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3567,7 +3960,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3588,7 +3981,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3609,7 +4002,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3630,7 +4023,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3651,26 +4044,26 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7">
         <v>2000</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>34</v>
+      <c r="C11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3692,26 +4085,26 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
         <v>2001</v>
       </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>34</v>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>14</v>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3733,10 +4126,10 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3760,26 +4153,26 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
         <v>3000</v>
       </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>34</v>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>20</v>
+      <c r="G15" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3801,26 +4194,26 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>3001</v>
       </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>34</v>
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>16</v>
+      <c r="G16" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3842,10 +4235,10 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3869,137 +4262,136 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4000</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8">
-        <v>4000</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B20" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A20" s="12" t="s">
+      <c r="G20" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5100</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="8">
-        <v>5000</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="8">
-        <v>5100</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8">
-        <v>6000</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="8">
-        <v>6001</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="8">
-        <v>7000</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="G24" s="51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
+      <c r="G25" s="51" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A27" s="54"/>
     </row>
     <row r="28" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A28" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A28" s="54"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
+++ b/로스트아크/데이터테이블/Effect_Table(수정필요-설명).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E535FB8-281E-4B4C-89A8-3713927F3214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AE1361-AA16-4828-8529-F670F4F54C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -1270,7 +1270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1300,10 +1300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon_res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1312,434 +1308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>[f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피해를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>번</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>준다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N% </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f1]% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가시킨다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N% </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f1]% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감소시킨다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만큼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가시킨다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만큼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감소시킨다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호막 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAMAGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1752,45 +1320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">초 마다 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의 피해를 준다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_pwr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1828,56 +1357,6 @@
   </si>
   <si>
     <t>기획용 (간단한 설명)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">효과 아이콘 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Icon_Atlas_Table.xlsx의 id)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 아이콘 없음</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2097,10 +1576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬에 속성을 부여한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬 효과 ID 넘버링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2118,102 +1593,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일반</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피해</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비례 피해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">의 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[f2]%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">에 비례한 피해를 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[f3]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>번 준다.</t>
-    </r>
+    <t>PARTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬에 [f1]속성을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 최대 체력의 n%에 해당하는 보호막을 n초간 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]의 피해를 [f2]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]의 [f2]%에 비례한 피해를 [f3]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 N 증가 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 [f1]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 N% 증가 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 [f1]% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 N 증가 - 파티원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 N% 증가 - 파티원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 기본 공격력의 n%에 해당하는 만큼 파티원의 공격력을 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 N 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 [f1]만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 N% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 [f1]% 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막 - 파티원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초 마다 [f1]의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가(서포터) - 파티원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]의 고정 피해를 [f2]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2225,7 +1705,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2240,70 +1720,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -2438,13 +1854,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2769,10 +2178,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2782,191 +2194,164 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2991,10 +2376,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3294,446 +2675,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:M81"/>
+  <dimension ref="B1:M80"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="5.69921875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="63.09765625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="8.8984375" style="13" customWidth="1"/>
-    <col min="10" max="11" width="8.796875" style="13"/>
-    <col min="12" max="13" width="8.796875" style="12"/>
-    <col min="14" max="16384" width="8.796875" style="13"/>
+    <col min="1" max="1" width="3.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="63.09765625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.8984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.796875" style="3"/>
+    <col min="12" max="13" width="8.796875" style="2"/>
+    <col min="14" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="H2" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C7" s="17">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="2:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="17">
+        <v>4</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C9" s="17">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="H2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="61"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="33">
+        <v>6</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="61"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C6" s="27">
-        <v>2</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C7" s="27">
-        <v>3</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="61"/>
-    </row>
-    <row r="8" spans="2:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="27">
-        <v>4</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-    </row>
-    <row r="9" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C9" s="27">
-        <v>5</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="44">
-        <v>6</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B11" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="44">
-        <v>7</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="18"/>
+      <c r="F10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="29"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="40"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="H15" s="12"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="H16" s="12"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="H17" s="12"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="H18" s="12"/>
+      <c r="F18" s="31"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="F19" s="42"/>
-      <c r="H19" s="12"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="12"/>
+      <c r="C20" s="2"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="12"/>
-      <c r="F21" s="42"/>
+      <c r="C21" s="2"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C22" s="12"/>
-      <c r="F22" s="42"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C23" s="12"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C24" s="12"/>
+      <c r="C24" s="2"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="12"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C26" s="12"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C27" s="12"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C28" s="12"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C29" s="12"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C30" s="12"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C31" s="12"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C32" s="12"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C33" s="12"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C34" s="12"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C35" s="12"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C36" s="12"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C37" s="12"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C38" s="12"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C39" s="12"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C40" s="12"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C41" s="12"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C42" s="12"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C43" s="12"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C44" s="12"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C45" s="12"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C46" s="12"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C47" s="12"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C48" s="12"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C49" s="12"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C50" s="12"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C51" s="12"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C52" s="12"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C53" s="12"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C54" s="12"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C55" s="12"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C56" s="12"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C57" s="12"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C58" s="12"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C59" s="12"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C60" s="12"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C61" s="12"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C62" s="12"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C63" s="12"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C64" s="12"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C65" s="12"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C66" s="12"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C67" s="12"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C68" s="12"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C69" s="12"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C70" s="12"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C71" s="12"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C72" s="12"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C73" s="12"/>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C74" s="12"/>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C75" s="12"/>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C76" s="12"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C77" s="12"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C78" s="12"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C79" s="12"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C80" s="12"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C81" s="12"/>
+      <c r="C80" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3750,648 +3113,702 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" style="53" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.69921875" style="10" customWidth="1"/>
-    <col min="8" max="11" width="15.69921875" style="10" customWidth="1"/>
-    <col min="12" max="14" width="15.69921875" style="9" customWidth="1"/>
-    <col min="15" max="16" width="15.69921875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="18.69921875" style="10" customWidth="1"/>
-    <col min="18" max="21" width="15.69921875" style="9" customWidth="1"/>
-    <col min="22" max="25" width="18.69921875" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="25.8984375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.69921875" style="41" customWidth="1"/>
+    <col min="11" max="13" width="15.69921875" style="42" customWidth="1"/>
+    <col min="14" max="15" width="15.69921875" style="41" customWidth="1"/>
+    <col min="16" max="16" width="18.69921875" style="41" customWidth="1"/>
+    <col min="17" max="20" width="15.69921875" style="42" customWidth="1"/>
+    <col min="21" max="24" width="18.69921875" style="41" customWidth="1"/>
+    <col min="25" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="39">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="G5" s="40"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="G6" s="40"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="39">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="39">
+        <v>2001</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39">
+        <v>2002</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="39">
+        <v>2003</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="39">
+        <v>2004</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="39">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="39">
+        <v>3001</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="39">
+        <v>4000</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="39">
+        <v>4001</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="39">
+        <v>5000</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="39">
+        <v>5100</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="39">
+        <v>6000</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="39">
+        <v>6001</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="1" t="b">
+      <c r="B24" s="39">
+        <v>6002</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A4" s="52"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G5" s="8"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G6" s="8"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G7" s="8"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G8" s="8"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G9" s="8"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G10" s="8"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A11" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A12" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2001</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="53"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A15" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A16" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3001</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="53"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A18" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="7">
-        <v>4000</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A20" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="G24" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A21" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5100</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A23" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A24" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A25" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="54"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A28" s="54"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A29" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
